--- a/utils/localisation_script/delta_generation/out/kn.xlsx
+++ b/utils/localisation_script/delta_generation/out/kn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>a-tag-replacement</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>u</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -463,52 +463,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;a&gt;Click Here&lt;/a&gt; to go back to home page</t>
+          <t>Konkani Roman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> class="" href="/"</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>You have helped us validate &lt;u&gt; recordings</t>
+          <t>Konkani DV</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&lt;span id="spn-validation-count" class="font-wt-900"&gt;&lt;/span&gt;</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Help your language pair achieve it’s goal of &lt;u&gt; translations. We know you can do more!</t>
+          <t>Manipuri BN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&lt;span id="language-hour-goal"&gt;&lt;/span&gt;</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>We will attempt to validate the same and remove the data from our platform within 15 days on a best effort basis.</t>
+          <t>Manipuri MM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -519,7 +507,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Santali OL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -530,41 +518,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>If you are the copyright holder of this data and believe it should not be used on the platform, please send us an email to &lt;u&gt;&lt;v&gt; with evidence that you are indeed the copyright holder of this data.</t>
+          <t>Santali DV</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>&lt;span class="email"&gt;optout@bhashini.gov.in&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>&lt;span class="tooltiptext" id="myDataSourceTooltip"&gt;Copy to clipboard&lt;/span&gt;</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>You’ve earned your &lt;u&gt; Bhasha Samarthak Badge</t>
+          <t>BODO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>&lt;span id="current_badge_name"&gt;&lt;/span&gt;</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(No Username)</t>
+          <t>DOGRI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -575,7 +551,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I've contributed towards building open language repository for India on https://bhashini.gov.in/bhashadaan You and I can make a difference by donating our voices that can help machines learn our language and interact with us through great linguistic applications. Do your bit and empower the language?</t>
+          <t>KASHMIRI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -586,7 +562,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>MAITHILI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -594,6 +570,3743 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Malayalam</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NEPALI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SANSKRIT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SINDHI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Telugu</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>URDU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>social sharing text without rank</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>social sharing text with rank</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Show All</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Speak</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Contribute your voice to create an open data repository of Indian languages</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Help us by validating the recordings that others have contributed</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Know More</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>By number of speakers</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VIEW ALL DETAILS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Please don't use email or mobile number as user name</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mother Tongue</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Select Mother Tongue</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Age Group</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Select Age Group</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Transgender - He</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Transgender - She</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rather Not Say</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Terms &amp; Conditions</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Privacy Policy</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Select a language</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>All Languages</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Data Last Updated</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>We do not have any data for this language, would you like to contribute for it?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Contribute Now</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Progress Chart</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Gender Distribution</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>State Wise distribution</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Age Group Distribution</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Back to Home</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Quick Tips</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Please test your &lt;b&gt;Microphone&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Please test your &lt;b&gt;Speakers&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ensure there is &lt;b&gt;no background noise&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Read once &lt;b&gt;before recording it&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Get started by clicking on &lt;b&gt;Record&lt;/b&gt; button</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Test your Microphone and Speakers</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Test Mic</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Please speak clearly</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Low/No Background Noise</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Background Noise Detected</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Test Speakers</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Recording will automatically stop after &lt;u&gt; seconds</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>&lt;span id="counter"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Audio recording is too small. Please Re-record</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Report Content</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Help us understand what’s wrong with the sentence</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Offensive</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hurting sentiments of religion, community or abusive content etc.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Prohibited Content</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hateful / Discriminatory / Vulgar language, drugs promotion etc.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Political Statement</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hateful Political views, amplifying hate-speech etc.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Misinformation</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hearsay / Rumors, deliberate falsified facts etc.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Please specify the reason (Optional)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Thank You</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Your feedback helps us keep Bolo India relevant, we appreciate you taking time to leave the feedback.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Error!!!</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>An unexpected error occured while processing your request. Please try after some time.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Thank you for contributing!</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>You are a champion</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Share it with your friends and family</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Contribute More</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Thank you for your enthusiasm to validate the recordings.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>We do not have any data in &lt;u&gt; language. Please try again later.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>&lt;span id="spn-validation-language"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Thank you for validating!</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Validate More</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Incorrect</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Replay</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Pause</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Skip</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Download</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Help us understand what’s wrong with the recording</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Please validate any error message before proceeding</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Badge</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>You are on a spree !!</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oops</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Page Not Found</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Looks like you have taken a wrong turn here</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>&lt;a&gt;Click Here&lt;/a&gt; to go back to home page</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> class="" href="/"</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>You have helped us validate &lt;u&gt; recordings</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>&lt;span id="spn-validation-count" class="font-wt-900"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Help your language achieve it’s goal of &lt;u&gt; hrs. We know you can do more!</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>&lt;span id="language-hour-goal"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bolo India</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Suno India</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Likho India</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Dekho India</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>User Details</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Type what you hear</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Validate</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Translate</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Translate and type the text</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Type the text as per the image</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Needs Change</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Your Edit</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Test your Speaker</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Original Text</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Transcribe</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Thank you for your enthusiasm to transcribe the recordings.</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>People participated</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Languages</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Language pairs</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Translations done</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Images labelled</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Total translations</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Captured Text</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Add Text</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Is the translation correct?</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Your language and top 3 most contributed languages</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FROM </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Contributions made to Likho India</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Contributions made to Dekho India</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Dashboard</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Your language pair and top 3 most contributed language pairs</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Type the text as you hear the audio</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Does the audio match the text?</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Type the translation of the given text</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Type the text from the image</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Is the text from the image captured correctly?</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Click to open expanded view</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Contributions made to Suno India</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Virtual keyboard</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Help us understand what’s wrong with the image labelled</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Translations validated</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Validate text as per the audio</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hours transcribed and validated</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Images labelled and validated</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Your Feedback</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Giving Feedback for?</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Bolo</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Suno</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Likho</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Dekho</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>What is your opinion of this page</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Please select your feedback category</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Select a category</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Share your feedback below:</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Type here...</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>You took the first important step</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Thank you for your enthusiasm to label the images.</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Speakers contributed</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Contributions made to Bolo India</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Back to Bolo India Home</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Contribute your voice</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Validate what they say</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Start Recording</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Stop Recording</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Re-record</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Please type in your chosen language</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>recording(s) contributed</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>sentence(s) validated</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>sentence(s) contributed</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Help your language pair achieve it’s goal of &lt;u&gt; translations. We know you can do more!</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>&lt;span id="language-hour-goal"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Help your language achieve it’s goal of &lt;u&gt; images. We know you can do more!</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>&lt;span id="language-hour-goal"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Images validated</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>By hours of data recorded and validated</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Your feedback helps us keep Suno India relevant, we appreciate you taking time to leave the feedback.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Your feedback helps us keep Likho India relevant, we appreciate you taking time to leave the feedback.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Your feedback helps us keep Dekho India relevant, we appreciate you taking time to leave the feedback.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Let's Go</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Get Chrome extension to type in any language you choose</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Watch the video</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Install Now</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Thank you for your enthusiasm to contribute your voice.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>By proceeding ahead you agree to the &lt;a&gt; Terms and Conditions&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> href="../terms-and-conditions.html" target="_blank"</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Special characters are not allowed</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>We will attempt to validate the same and remove the data from our platform within 15 days on a best effort basis.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Duration validated</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Duration transcribed</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Input field can not be empty</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choose the initiative </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choose the language </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Participation Levels</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Validations</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Start Participating</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>One platform, multiple crowdsourcing initiatives</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Enrich your language by donating your voice</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Enrich your language by transcribing audio into text</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Enrich your language by translating text</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Enrich your language by labelling images</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Bhasha Samarthak Levels</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BhashaDaan: A crowdsourcing initiative for Indian languages</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Select a language pair</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Become a Bhasha Samarthak by contributing to Bolo India, Suno India, Likho India or Dekho India. Earn Bronze/Silver/Gold/Platinum Bhasha Samarthak Badges based on your contributions. Share them in your social circle, your language community, and motivate your friends and family to contribute to the cause.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Become a Bhasha Samarthak by contributing to these initiatives. For details on how to earn Bhasha Samarthak Badges, please select the initiative and language of your choice.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Levels</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Levels and badges may take upto 48 hours to update. Your contribution will be validated before confirming the badge. Please keep contributing actively to stand a chance to get recognised.</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Duration recorded</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Help to build an open repository of data to digitally enrich your language</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Contribute and become a Bhasha Samarthak</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Bronze Bhasha Samarthak Badge</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Contribute just 5 sentences in your language</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>If you are the copyright holder of this data and believe it should not be used on the platform, please send us an email to &lt;u&gt;&lt;v&gt; with evidence that you are indeed the copyright holder of this data.</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>&lt;span class="email"&gt;optout@bhashini.gov.in&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>&lt;span class="tooltiptext" id="myDataSourceTooltip"&gt;Copy to clipboard&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>You are enriching your language</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>You are just &lt;u&gt; recordings away from earning your &lt;v&gt; Bhasha Samarthak Badge.</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>&lt;span id="sentense_away_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_name"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>You’ve earned your &lt;u&gt; Bhasha Samarthak Badge</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_name"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Your next goal is to reach &lt;u&gt; recordings to earn your &lt;v&gt; Bhasha Samarthak Badge.</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Select the language for contribution</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Select the language pair for contribution</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Validate the translation contributed by others</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Thank you for your for translation efforts</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Thank you for your effort to validate translations.</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Validate the text, labelled by others, as per the image</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Thank you for your enthusiasm to validate the image labels.</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>(No Username)</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Change User</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>All the fields are optional but you can enrich your dataset contribution by providing the demographic details.</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Enter username</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Only 12 characters allowed. (Hint: name.surname, name_surname12 etc.)</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>We would like to get your feedback to improve this platform</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Opt-out Notification</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Your next goal is to reach &lt;u&gt; sentences to earn your &lt;v&gt; Bhasha Samarthak Badge.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Thank you for correcting!</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>You are just &lt;u&gt; images away from earning your &lt;v&gt; Bhasha Samarthak Badge.</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>&lt;span id="sentense_away_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_name"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Your next goal is to reach &lt;u&gt; images to earn your &lt;v&gt; Bhasha Samarthak Badge.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>You’ve earned a &lt;u&gt; Bhasha Samarthak Badge by validating &lt;v&gt; Images.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>recording(s) validated</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>You’ve earned a &lt;u&gt; Bhasha Samarthak Badge by validating &lt;v&gt; recordings</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>image label(s) contributed</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>image label(s) validated</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>You've earned a &lt;u&gt; Bhasha Samarthak Badge by contributing &lt;v&gt; sentences.</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>You've earned a &lt;u&gt; Bhasha Samarthak Badge by labelling &lt;v&gt; images.</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>You've earned a &lt;u&gt; Bhasha Samarthak Badge by contributing &lt;v&gt; recordings</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Contribute by typing what you hear on audio</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Validate the texts transcribed by others</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Contribute your voice by recording the sentence</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Validate the audios recorded by others</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Contribute by translating the prompted text in your language</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Validate the translations contributed by others</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Contribute by labelling the image</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Validate the images labelled by others</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Bhasha</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Daan</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Your contribution can empower Bhashini to make many such stories happen.</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>*required</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Submitted successfully</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Thank you for your feedback!</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>upto 10 (Kid)</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>10 - 30 (Youth)</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>30 - 60 (Adult)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>60+ (Senior)</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Not collecting contributions for selected language</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>No validation data available for selected language</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>I've contributed towards building open language repository for India on https://bhashini.gov.in/bhashadaan You and I can make a difference by donating our voices that can help machines learn our language and interact with us through great linguistic applications. Do your bit and empower the language?</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>You are just &lt;u&gt; sentences away from earning your &lt;v&gt; Bhasha Samarthak Badge.</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>&lt;span id="sentense_away_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>&lt;span id="next_badge_name"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>You’ve earned a &lt;u&gt; Bhasha Samarthak Badge by validating &lt;v&gt; sentences.</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_name_1"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Towards digital empowerment for all...</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Remove language barriers with BhashaDaan</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Your selected language</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Top languages</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Suggestion</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Complaint</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Compliment</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Marathi</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tamil</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Kannada</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Bengali</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Odia</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Assamese</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Start typing here...</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>By proceeding ahead you agree to the &lt;a&gt; Terms and Conditions&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> href="./terms-and-conditions.html" target="_blank"</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>hrs recorded in</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>hrs validated in</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>minutes</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>seconds</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Recording for 5 seconds</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Recording for 4 seconds</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Recording for 3 seconds</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Recording for 2 seconds</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Recording for 1 seconds</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Playingback Audio</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Playing</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Congratulations!!! You have completed this batch of sentences</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Sentences</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Recording</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Labelling</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Transcribing</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Translating</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Images</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Validating</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Back to Suno India Home</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Back to Likho India Home</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Back to Dekho India Home</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
